--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>519009.8962074019</v>
+        <v>513114.4553970883</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17532658.5476232</v>
+        <v>17532658.54762321</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9213992.301210118</v>
+        <v>9213992.301210111</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6233982.135527724</v>
+        <v>6233982.135527723</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8.615228612793524</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>100.0791888769556</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>138.9000023092309</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
@@ -831,13 +831,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>137.369808702606</v>
       </c>
       <c r="W4" t="n">
-        <v>145.7905655790106</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>310.1857433866147</v>
       </c>
       <c r="F5" t="n">
-        <v>410.3975204613589</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1116,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>193.5927947728079</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206.0329791175249</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>77.44015572275991</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>403.1777176086892</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>292.8135586421404</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.07500185391657</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>100.5836881106795</v>
       </c>
       <c r="T11" t="n">
-        <v>22.02843032108352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3728241304924</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>139.4632550703626</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>35.46092761822926</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9215084903383</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.2755775284206</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.0889602856394</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>234.3487245741044</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>257.5068503881226</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>77.47549685076548</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>403.1777176086892</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>292.8135586421404</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.07500185391657</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.98315041848379</v>
+        <v>100.5836881106795</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.9215084903383</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>95.44348860471447</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.90681915493205</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.0889602856394</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.953342410237</v>
+        <v>234.3487245741044</v>
       </c>
       <c r="U16" t="n">
         <v>279.934363506244</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>215.9643889225849</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -1846,22 +1846,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>67.82213666528293</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>403.1777176086892</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>292.8135586421404</v>
       </c>
       <c r="I17" t="n">
         <v>29.07500185391657</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>394.687478205916</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>155.1223773910805</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.9215084903383</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>62.72365013074406</v>
+        <v>234.3487245741044</v>
       </c>
       <c r="U19" t="n">
         <v>279.934363506244</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>118.6746583632326</v>
       </c>
       <c r="H20" t="n">
-        <v>114.1084138322246</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>29.07500185391657</v>
@@ -2134,19 +2134,19 @@
         <v>100.5836881106795</v>
       </c>
       <c r="T20" t="n">
-        <v>213.5788950023109</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3728241304924</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>40.15174963781607</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.2755775284206</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>95.44348860471447</v>
+        <v>15.57622971520043</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.90681915493205</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>173.0889602856394</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>210.0643782387262</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>403.1777176086892</v>
@@ -2338,7 +2338,7 @@
         <v>292.8135586421404</v>
       </c>
       <c r="I23" t="n">
-        <v>29.07500185391657</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>100.5836881106795</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>159.0522847336501</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.9215084903383</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.2755775284206</v>
+        <v>109.8115352207287</v>
       </c>
       <c r="I25" t="n">
-        <v>95.44348860471447</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.90681915493205</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>173.0889602856394</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>137.2339089361</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>18.52540043008401</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14.64476578623619</v>
+        <v>29.07500185391657</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>100.5836881106795</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.5788950023109</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3728241304924</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>142.2755775284206</v>
       </c>
       <c r="I28" t="n">
-        <v>95.44348860471447</v>
+        <v>45.33289691548416</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>234.3487245741044</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>179.1060526485331</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>141.6620092573264</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>29.07500185391657</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>100.5836881106795</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.5788950023109</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3728241304924</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.53637029840611</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>60.57519239755028</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.9215084903383</v>
+        <v>109.8115352207287</v>
       </c>
       <c r="H31" t="n">
-        <v>142.2755775284206</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>95.44348860471447</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.90681915493205</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>173.0889602856394</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3034,13 +3034,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>29.07500185391657</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>100.5836881106795</v>
       </c>
       <c r="T32" t="n">
-        <v>115.77918792424</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.811657746276282</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.071665402942037</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.9215084903383</v>
+        <v>103.4139111373427</v>
       </c>
       <c r="H34" t="n">
-        <v>142.2755775284206</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>95.44348860471447</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.90681915493205</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>173.0889602856394</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>201.3895383038132</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>100.5836881106795</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.5788950023109</v>
       </c>
       <c r="U35" t="n">
-        <v>124.3244923553874</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>60.57519239755028</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9215084903383</v>
+        <v>103.4139111373427</v>
       </c>
       <c r="H37" t="n">
-        <v>142.2755775284206</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.44348860471447</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.90681915493205</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>173.0889602856394</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>2.521315277622564</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>3.125106424851184</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>29.07500185391657</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3678,10 +3678,10 @@
         <v>164.9215084903383</v>
       </c>
       <c r="H40" t="n">
-        <v>142.2755775284206</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>95.44348860471447</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.90681915493205</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>173.0889602856394</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>234.3487245741044</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.934363506244</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.4121507421248</v>
+        <v>111.2431190211668</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>24.97302253396206</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>100.5836881106795</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>145.739854717754</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3906,13 +3906,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.9215084903383</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.90681915493205</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>173.0889602856394</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.616737726955</v>
+        <v>116.3751992575079</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>403.1777176086892</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.07500185391657</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>100.5836881106795</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.5788950023109</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3728241304924</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>125.9295939549208</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.53637029840611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.8012451981106</v>
+        <v>48.50709198241085</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.76508562960205</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960205</v>
+        <v>1277.486292962325</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1987.1641917054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1987.1641917054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1637.32663704188</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1253.566336177049</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>852.9229383460014</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>451.9862652940915</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L3" t="n">
-        <v>497.5713418949007</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
         <v>1192.007362767164</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>873.093965943204</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="C4" t="n">
-        <v>873.093965943204</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D4" t="n">
-        <v>873.093965943204</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E4" t="n">
-        <v>873.093965943204</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>708.4628400537953</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>708.4628400537953</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1577.041056012114</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1294.242908558238</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>1020.35716349776</v>
+        <v>877.9439658240012</v>
       </c>
       <c r="W4" t="n">
-        <v>873.093965943204</v>
+        <v>877.9439658240012</v>
       </c>
       <c r="X4" t="n">
-        <v>873.093965943204</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.093965943204</v>
+        <v>639.6001036836846</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>1168.276232357462</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.908511128883</v>
+        <v>1168.276232357462</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.908511128883</v>
+        <v>763.8123024505221</v>
       </c>
       <c r="E5" t="n">
-        <v>853.5682956457795</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F5" t="n">
-        <v>439.0253456848109</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
         <v>1209.69369432892</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1168.276232357462</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4634,13 +4634,13 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,19 +4652,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1724.070068790184</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>2058.694762117472</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>307.7185867198193</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>307.7185867198193</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>856.3536062232714</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="C8" t="n">
-        <v>446.2290155365415</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M8" t="n">
         <v>1209.69369432892</v>
@@ -4819,7 +4819,7 @@
         <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
         <v>1726.536628995245</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1866.047797426961</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.404399595914</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y8" t="n">
-        <v>1064.467726544004</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>187.8810127971431</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>704.7239474634683</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4986,25 +4986,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y10" t="n">
         <v>41.76508562960205</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1281.599643065957</v>
+        <v>1178.619195440325</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.599643065957</v>
+        <v>1178.619195440325</v>
       </c>
       <c r="D11" t="n">
-        <v>877.1357131590178</v>
+        <v>774.155265533386</v>
       </c>
       <c r="E11" t="n">
-        <v>462.7954976759145</v>
+        <v>774.155265533386</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>774.155265533386</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>366.9050457266293</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>71.13377437093192</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
@@ -5059,34 +5059,34 @@
         <v>1129.348990191802</v>
       </c>
       <c r="P11" t="n">
-        <v>1606.095492619028</v>
+        <v>1479.099825542887</v>
       </c>
       <c r="Q11" t="n">
-        <v>2083.694490742536</v>
+        <v>1956.698823666395</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1986.65459651982</v>
       </c>
       <c r="T11" t="n">
-        <v>2066.003341761836</v>
+        <v>1986.65459651982</v>
       </c>
       <c r="U11" t="n">
-        <v>2066.003341761836</v>
+        <v>1729.712349923363</v>
       </c>
       <c r="V11" t="n">
-        <v>2066.003341761836</v>
+        <v>1729.712349923363</v>
       </c>
       <c r="W11" t="n">
-        <v>1682.243040897005</v>
+        <v>1729.712349923363</v>
       </c>
       <c r="X11" t="n">
-        <v>1281.599643065957</v>
+        <v>1729.712349923363</v>
       </c>
       <c r="Y11" t="n">
-        <v>1281.599643065957</v>
+        <v>1588.840375104815</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>48.11582847966815</v>
       </c>
       <c r="J12" t="n">
-        <v>307.8075667651198</v>
+        <v>314.1583096151859</v>
       </c>
       <c r="K12" t="n">
-        <v>824.650501431445</v>
+        <v>831.0012442815112</v>
       </c>
       <c r="L12" t="n">
-        <v>1341.49343609777</v>
+        <v>943.7423977627907</v>
       </c>
       <c r="M12" t="n">
-        <v>1480.896576163523</v>
+        <v>1083.145537828543</v>
       </c>
       <c r="N12" t="n">
-        <v>1699.116210696269</v>
+        <v>1293.146053692496</v>
       </c>
       <c r="O12" t="n">
-        <v>1826.357426373845</v>
+        <v>1420.387269370071</v>
       </c>
       <c r="P12" t="n">
-        <v>1920.649827910301</v>
+        <v>1514.679670906528</v>
       </c>
       <c r="Q12" t="n">
         <v>1963.464526680304</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>884.5196047829022</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C13" t="n">
-        <v>713.4262323446187</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>677.6071135383265</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>516.6962984066461</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>352.0651725172373</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>185.4777902037643</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
         <v>41.76508562960205</v>
@@ -5205,19 +5205,19 @@
         <v>331.8385502539439</v>
       </c>
       <c r="L13" t="n">
-        <v>681.1740176467152</v>
+        <v>688.3454019531898</v>
       </c>
       <c r="M13" t="n">
-        <v>1072.299511272057</v>
+        <v>952.3583458255378</v>
       </c>
       <c r="N13" t="n">
-        <v>1452.577693546407</v>
+        <v>1332.636528099888</v>
       </c>
       <c r="O13" t="n">
-        <v>1803.986684395413</v>
+        <v>1684.045518948894</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.254281480102</v>
+        <v>1968.313116033583</v>
       </c>
       <c r="Q13" t="n">
         <v>2088.254281480102</v>
@@ -5226,25 +5226,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S13" t="n">
-        <v>2088.254281480102</v>
+        <v>1913.416947858244</v>
       </c>
       <c r="T13" t="n">
-        <v>2088.254281480102</v>
+        <v>1676.701064450058</v>
       </c>
       <c r="U13" t="n">
-        <v>2088.254281480102</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V13" t="n">
-        <v>1814.368536419624</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W13" t="n">
-        <v>1535.298871928499</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X13" t="n">
-        <v>1296.955009788182</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y13" t="n">
-        <v>1072.219311176947</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>451.8896763163319</v>
+        <v>852.4133431604218</v>
       </c>
       <c r="C14" t="n">
-        <v>41.76508562960205</v>
+        <v>774.155265533386</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>774.155265533386</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>774.155265533386</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>774.155265533386</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>366.9050457266293</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>71.13377437093192</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>414.6950390509602</v>
+        <v>404.5054409389446</v>
       </c>
       <c r="K14" t="n">
-        <v>931.5379737172855</v>
+        <v>921.3483756052699</v>
       </c>
       <c r="L14" t="n">
-        <v>1065.615394043652</v>
+        <v>1055.425795931636</v>
       </c>
       <c r="M14" t="n">
-        <v>1582.458328709977</v>
+        <v>1217.438882162731</v>
       </c>
       <c r="N14" t="n">
-        <v>1748.961548449185</v>
+        <v>1383.942101901939</v>
       </c>
       <c r="O14" t="n">
         <v>1900.785036568264</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1996.35210934022</v>
+        <v>1986.65459651982</v>
       </c>
       <c r="T14" t="n">
-        <v>1996.35210934022</v>
+        <v>1986.65459651982</v>
       </c>
       <c r="U14" t="n">
-        <v>1996.35210934022</v>
+        <v>1986.65459651982</v>
       </c>
       <c r="V14" t="n">
-        <v>1646.5145546767</v>
+        <v>1636.817041856301</v>
       </c>
       <c r="W14" t="n">
-        <v>1262.754253811869</v>
+        <v>1253.056740991469</v>
       </c>
       <c r="X14" t="n">
-        <v>862.1108559808214</v>
+        <v>852.4133431604218</v>
       </c>
       <c r="Y14" t="n">
-        <v>862.1108559808214</v>
+        <v>852.4133431604218</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>41.76508562960205</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>48.11582847966815</v>
       </c>
       <c r="J15" t="n">
-        <v>64.13916279048655</v>
+        <v>314.1583096151859</v>
       </c>
       <c r="K15" t="n">
-        <v>134.0327283626105</v>
+        <v>469.5229994484131</v>
       </c>
       <c r="L15" t="n">
-        <v>650.8756630289358</v>
+        <v>582.2641529296926</v>
       </c>
       <c r="M15" t="n">
-        <v>870.3550516741346</v>
+        <v>721.6672929954453</v>
       </c>
       <c r="N15" t="n">
-        <v>1387.19798634046</v>
+        <v>870.5955205626268</v>
       </c>
       <c r="O15" t="n">
-        <v>1904.040921006785</v>
+        <v>997.8367362402024</v>
       </c>
       <c r="P15" t="n">
-        <v>1998.333322543242</v>
+        <v>1514.679670906528</v>
       </c>
       <c r="Q15" t="n">
-        <v>2041.148021313244</v>
+        <v>1963.464526680304</v>
       </c>
       <c r="R15" t="n">
         <v>2041.148021313244</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.1726498767884</v>
+        <v>699.851300190129</v>
       </c>
       <c r="C16" t="n">
-        <v>138.1726498767884</v>
+        <v>528.7579277518455</v>
       </c>
       <c r="D16" t="n">
-        <v>138.1726498767884</v>
+        <v>369.2632830747556</v>
       </c>
       <c r="E16" t="n">
-        <v>138.1726498767884</v>
+        <v>208.3524679430751</v>
       </c>
       <c r="F16" t="n">
-        <v>138.1726498767884</v>
+        <v>208.3524679430751</v>
       </c>
       <c r="G16" t="n">
-        <v>138.1726498767884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>138.1726498767884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>41.76508562960205</v>
+        <v>101.7895475202598</v>
       </c>
       <c r="K16" t="n">
-        <v>271.8140883632861</v>
+        <v>331.8385502539439</v>
       </c>
       <c r="L16" t="n">
-        <v>628.320940062532</v>
+        <v>688.3454019531898</v>
       </c>
       <c r="M16" t="n">
-        <v>1019.446433687874</v>
+        <v>952.3583458255378</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.724615962224</v>
+        <v>1332.636528099888</v>
       </c>
       <c r="O16" t="n">
-        <v>1751.13360681123</v>
+        <v>1684.045518948894</v>
       </c>
       <c r="P16" t="n">
-        <v>2035.401203895919</v>
+        <v>1968.313116033583</v>
       </c>
       <c r="Q16" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="R16" t="n">
-        <v>2032.792847990272</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S16" t="n">
-        <v>1857.955514368414</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T16" t="n">
-        <v>1624.669309913629</v>
+        <v>1851.538398071916</v>
       </c>
       <c r="U16" t="n">
-        <v>1341.907326573988</v>
+        <v>1568.776414732275</v>
       </c>
       <c r="V16" t="n">
-        <v>1068.02158151351</v>
+        <v>1568.776414732275</v>
       </c>
       <c r="W16" t="n">
-        <v>788.9519170223848</v>
+        <v>1350.630567335725</v>
       </c>
       <c r="X16" t="n">
-        <v>550.6080548820681</v>
+        <v>1112.286705195409</v>
       </c>
       <c r="Y16" t="n">
-        <v>325.8723562708328</v>
+        <v>887.5510065841734</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>895.5985805407652</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C17" t="n">
-        <v>485.4739898540352</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="D17" t="n">
-        <v>485.4739898540352</v>
+        <v>1609.525893062802</v>
       </c>
       <c r="E17" t="n">
-        <v>71.13377437093192</v>
+        <v>1195.185677579698</v>
       </c>
       <c r="F17" t="n">
-        <v>71.13377437093192</v>
+        <v>774.155265533386</v>
       </c>
       <c r="G17" t="n">
-        <v>71.13377437093192</v>
+        <v>366.9050457266293</v>
       </c>
       <c r="H17" t="n">
         <v>71.13377437093192</v>
@@ -5515,25 +5515,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>418.90298470202</v>
+        <v>347.9842025279771</v>
       </c>
       <c r="K17" t="n">
-        <v>514.9317757760541</v>
+        <v>444.0129936020112</v>
       </c>
       <c r="L17" t="n">
-        <v>649.0091961024207</v>
+        <v>578.0904139283778</v>
       </c>
       <c r="M17" t="n">
-        <v>811.0222823335151</v>
+        <v>740.1035001594722</v>
       </c>
       <c r="N17" t="n">
-        <v>977.5255020727229</v>
+        <v>1256.946434825797</v>
       </c>
       <c r="O17" t="n">
-        <v>1129.348990191802</v>
+        <v>1773.789369492123</v>
       </c>
       <c r="P17" t="n">
-        <v>1479.099825542887</v>
+        <v>1889.39429869334</v>
       </c>
       <c r="Q17" t="n">
         <v>1956.698823666395</v>
@@ -5554,13 +5554,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>1305.819760205255</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>1305.819760205255</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>307.8075667651198</v>
       </c>
       <c r="K18" t="n">
-        <v>471.3913752671409</v>
+        <v>824.650501431445</v>
       </c>
       <c r="L18" t="n">
-        <v>988.2343099334662</v>
+        <v>1004.814686059562</v>
       </c>
       <c r="M18" t="n">
-        <v>1127.637449999219</v>
+        <v>1144.217826125314</v>
       </c>
       <c r="N18" t="n">
-        <v>1276.5656775664</v>
+        <v>1293.146053692496</v>
       </c>
       <c r="O18" t="n">
-        <v>1403.806893243976</v>
+        <v>1420.387269370071</v>
       </c>
       <c r="P18" t="n">
-        <v>1920.649827910301</v>
+        <v>1514.679670906528</v>
       </c>
       <c r="Q18" t="n">
         <v>1963.464526680304</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.4003990889748</v>
+        <v>365.0417380350756</v>
       </c>
       <c r="C19" t="n">
-        <v>367.3070266506913</v>
+        <v>365.0417380350756</v>
       </c>
       <c r="D19" t="n">
-        <v>367.3070266506913</v>
+        <v>365.0417380350756</v>
       </c>
       <c r="E19" t="n">
-        <v>206.3962115190108</v>
+        <v>365.0417380350756</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>208.3524679430751</v>
       </c>
       <c r="G19" t="n">
         <v>41.76508562960205</v>
@@ -5673,25 +5673,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>41.76508562960205</v>
+        <v>101.7895475202598</v>
       </c>
       <c r="K19" t="n">
-        <v>271.8140883632861</v>
+        <v>331.8385502539439</v>
       </c>
       <c r="L19" t="n">
-        <v>628.320940062532</v>
+        <v>561.2328522001959</v>
       </c>
       <c r="M19" t="n">
-        <v>1019.446433687874</v>
+        <v>952.3583458255378</v>
       </c>
       <c r="N19" t="n">
-        <v>1399.724615962224</v>
+        <v>1332.636528099888</v>
       </c>
       <c r="O19" t="n">
-        <v>1751.13360681123</v>
+        <v>1684.045518948894</v>
       </c>
       <c r="P19" t="n">
-        <v>2035.401203895919</v>
+        <v>1968.313116033583</v>
       </c>
       <c r="Q19" t="n">
         <v>2088.254281480102</v>
@@ -5703,22 +5703,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.897059125815</v>
+        <v>1851.538398071916</v>
       </c>
       <c r="U19" t="n">
-        <v>1742.135075786175</v>
+        <v>1568.776414732275</v>
       </c>
       <c r="V19" t="n">
-        <v>1468.249330725697</v>
+        <v>1294.890669671797</v>
       </c>
       <c r="W19" t="n">
-        <v>1189.179666234571</v>
+        <v>1015.821005180672</v>
       </c>
       <c r="X19" t="n">
-        <v>950.8358040942545</v>
+        <v>777.4771430403553</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.1001054830192</v>
+        <v>552.74144442912</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1010.859604613719</v>
+        <v>595.4710965639649</v>
       </c>
       <c r="C20" t="n">
-        <v>600.7350139269894</v>
+        <v>595.4710965639649</v>
       </c>
       <c r="D20" t="n">
-        <v>600.7350139269894</v>
+        <v>191.0071666570254</v>
       </c>
       <c r="E20" t="n">
-        <v>186.3947984438861</v>
+        <v>191.0071666570254</v>
       </c>
       <c r="F20" t="n">
-        <v>186.3947984438861</v>
+        <v>191.0071666570254</v>
       </c>
       <c r="G20" t="n">
-        <v>186.3947984438861</v>
+        <v>71.13377437093192</v>
       </c>
       <c r="H20" t="n">
         <v>71.13377437093192</v>
@@ -5752,28 +5752,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>92.12715781429091</v>
+        <v>418.90298470202</v>
       </c>
       <c r="K20" t="n">
-        <v>188.155948888325</v>
+        <v>514.9317757760541</v>
       </c>
       <c r="L20" t="n">
-        <v>322.2333692146916</v>
+        <v>649.0091961024207</v>
       </c>
       <c r="M20" t="n">
-        <v>484.2464554457861</v>
+        <v>811.0222823335151</v>
       </c>
       <c r="N20" t="n">
-        <v>650.7496751849937</v>
+        <v>977.5255020727229</v>
       </c>
       <c r="O20" t="n">
-        <v>1167.592609851319</v>
+        <v>1129.348990191802</v>
       </c>
       <c r="P20" t="n">
-        <v>1606.095492619028</v>
+        <v>1479.099825542887</v>
       </c>
       <c r="Q20" t="n">
-        <v>2083.694490742536</v>
+        <v>1956.698823666395</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5782,22 +5782,22 @@
         <v>1986.65459651982</v>
       </c>
       <c r="T20" t="n">
-        <v>1770.918338941728</v>
+        <v>1986.65459651982</v>
       </c>
       <c r="U20" t="n">
-        <v>1770.918338941728</v>
+        <v>1729.712349923363</v>
       </c>
       <c r="V20" t="n">
-        <v>1421.080784278209</v>
+        <v>1379.874795259844</v>
       </c>
       <c r="W20" t="n">
-        <v>1421.080784278209</v>
+        <v>996.1144943950123</v>
       </c>
       <c r="X20" t="n">
-        <v>1421.080784278209</v>
+        <v>595.4710965639649</v>
       </c>
       <c r="Y20" t="n">
-        <v>1421.080784278209</v>
+        <v>595.4710965639649</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>48.11582847966815</v>
       </c>
       <c r="J21" t="n">
-        <v>307.8075667651198</v>
+        <v>314.1583096151859</v>
       </c>
       <c r="K21" t="n">
-        <v>377.7011323372437</v>
+        <v>831.0012442815112</v>
       </c>
       <c r="L21" t="n">
-        <v>490.4422858185233</v>
+        <v>943.7423977627907</v>
       </c>
       <c r="M21" t="n">
-        <v>629.845425884276</v>
+        <v>1083.145537828543</v>
       </c>
       <c r="N21" t="n">
-        <v>1146.688360550601</v>
+        <v>1232.073765395725</v>
       </c>
       <c r="O21" t="n">
-        <v>1273.929576228177</v>
+        <v>1359.3149810733</v>
       </c>
       <c r="P21" t="n">
         <v>1514.679670906528</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322.4426773174315</v>
+        <v>377.9041108072619</v>
       </c>
       <c r="C22" t="n">
-        <v>322.4426773174315</v>
+        <v>377.9041108072619</v>
       </c>
       <c r="D22" t="n">
-        <v>322.4426773174315</v>
+        <v>218.4094661301719</v>
       </c>
       <c r="E22" t="n">
-        <v>322.4426773174315</v>
+        <v>57.49865099849137</v>
       </c>
       <c r="F22" t="n">
-        <v>322.4426773174315</v>
+        <v>57.49865099849137</v>
       </c>
       <c r="G22" t="n">
-        <v>281.8853544509506</v>
+        <v>57.49865099849137</v>
       </c>
       <c r="H22" t="n">
-        <v>138.1726498767884</v>
+        <v>57.49865099849137</v>
       </c>
       <c r="I22" t="n">
         <v>41.76508562960205</v>
@@ -5913,49 +5913,49 @@
         <v>101.7895475202598</v>
       </c>
       <c r="K22" t="n">
-        <v>324.6671659474693</v>
+        <v>331.8385502539439</v>
       </c>
       <c r="L22" t="n">
-        <v>681.1740176467152</v>
+        <v>688.3454019531898</v>
       </c>
       <c r="M22" t="n">
-        <v>1072.299511272057</v>
+        <v>1079.470895578532</v>
       </c>
       <c r="N22" t="n">
-        <v>1452.577693546407</v>
+        <v>1459.749077852882</v>
       </c>
       <c r="O22" t="n">
-        <v>1803.986684395413</v>
+        <v>1684.045518948894</v>
       </c>
       <c r="P22" t="n">
-        <v>2088.254281480102</v>
+        <v>1968.313116033583</v>
       </c>
       <c r="Q22" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>2032.792847990272</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S22" t="n">
-        <v>1857.955514368414</v>
+        <v>1913.416947858244</v>
       </c>
       <c r="T22" t="n">
-        <v>1621.239630960227</v>
+        <v>1676.701064450058</v>
       </c>
       <c r="U22" t="n">
-        <v>1338.477647620587</v>
+        <v>1393.939081110417</v>
       </c>
       <c r="V22" t="n">
-        <v>1064.591902560109</v>
+        <v>1120.053336049939</v>
       </c>
       <c r="W22" t="n">
-        <v>785.5222380689834</v>
+        <v>840.9836715588137</v>
       </c>
       <c r="X22" t="n">
-        <v>547.1783759286668</v>
+        <v>602.6398094184972</v>
       </c>
       <c r="Y22" t="n">
-        <v>322.4426773174315</v>
+        <v>377.9041108072619</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1807.739785237035</v>
+        <v>1161.720925943588</v>
       </c>
       <c r="C23" t="n">
-        <v>1807.739785237035</v>
+        <v>1161.720925943588</v>
       </c>
       <c r="D23" t="n">
-        <v>1403.275855330096</v>
+        <v>1161.720925943588</v>
       </c>
       <c r="E23" t="n">
-        <v>988.9356398469924</v>
+        <v>747.3807104604846</v>
       </c>
       <c r="F23" t="n">
-        <v>776.7493992018144</v>
+        <v>747.3807104604846</v>
       </c>
       <c r="G23" t="n">
-        <v>369.4991793950577</v>
+        <v>340.1304906537279</v>
       </c>
       <c r="H23" t="n">
-        <v>73.72790803936036</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="I23" t="n">
         <v>44.3592192980305</v>
@@ -5992,49 +5992,49 @@
         <v>94.72129148271935</v>
       </c>
       <c r="K23" t="n">
-        <v>190.7500825567535</v>
+        <v>643.6666302958467</v>
       </c>
       <c r="L23" t="n">
-        <v>383.6557035503042</v>
+        <v>777.7440506222133</v>
       </c>
       <c r="M23" t="n">
-        <v>932.6010423634316</v>
+        <v>939.7571368533078</v>
       </c>
       <c r="N23" t="n">
-        <v>1481.546381176559</v>
+        <v>1106.260356592516</v>
       </c>
       <c r="O23" t="n">
-        <v>2030.491719989686</v>
+        <v>1655.205695405643</v>
       </c>
       <c r="P23" t="n">
-        <v>2146.096649190903</v>
+        <v>2019.100982114762</v>
       </c>
       <c r="Q23" t="n">
-        <v>2213.401174163958</v>
+        <v>2086.405507087817</v>
       </c>
       <c r="R23" t="n">
         <v>2217.960964901525</v>
       </c>
       <c r="S23" t="n">
-        <v>2217.960964901525</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="T23" t="n">
-        <v>2217.960964901525</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="U23" t="n">
-        <v>2217.960964901525</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="V23" t="n">
-        <v>2217.960964901525</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="W23" t="n">
-        <v>2217.960964901525</v>
+        <v>1732.600979076411</v>
       </c>
       <c r="X23" t="n">
-        <v>2217.960964901525</v>
+        <v>1732.600979076411</v>
       </c>
       <c r="Y23" t="n">
-        <v>2217.960964901525</v>
+        <v>1571.942105608077</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>44.3592192980305</v>
       </c>
       <c r="I24" t="n">
-        <v>44.3592192980305</v>
+        <v>50.7099621480966</v>
       </c>
       <c r="J24" t="n">
-        <v>66.73329645891499</v>
+        <v>316.7524432836144</v>
       </c>
       <c r="K24" t="n">
-        <v>615.6786352720424</v>
+        <v>485.1254674993361</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4197887533219</v>
+        <v>597.8666209806156</v>
       </c>
       <c r="M24" t="n">
-        <v>867.8229288190746</v>
+        <v>1146.811959793743</v>
       </c>
       <c r="N24" t="n">
-        <v>1373.423681993865</v>
+        <v>1295.740187360924</v>
       </c>
       <c r="O24" t="n">
-        <v>1500.66489767144</v>
+        <v>1422.9814030385</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.957299207897</v>
+        <v>1517.273804574956</v>
       </c>
       <c r="Q24" t="n">
-        <v>2043.742154981673</v>
+        <v>1966.058660348733</v>
       </c>
       <c r="R24" t="n">
         <v>2043.742154981673</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>776.6088114539414</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="C25" t="n">
-        <v>776.6088114539414</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="D25" t="n">
-        <v>776.6088114539414</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="E25" t="n">
-        <v>615.6979963222609</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="F25" t="n">
-        <v>451.0668704328521</v>
+        <v>155.2799619452312</v>
       </c>
       <c r="G25" t="n">
-        <v>284.4794881193791</v>
+        <v>155.2799619452312</v>
       </c>
       <c r="H25" t="n">
-        <v>140.7667835452168</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="I25" t="n">
         <v>44.3592192980305</v>
@@ -6171,28 +6171,28 @@
         <v>2217.960964901525</v>
       </c>
       <c r="R25" t="n">
-        <v>2162.499531411695</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="S25" t="n">
-        <v>1987.662197789836</v>
+        <v>2043.123631279667</v>
       </c>
       <c r="T25" t="n">
-        <v>1750.94631438165</v>
+        <v>1806.40774787148</v>
       </c>
       <c r="U25" t="n">
-        <v>1468.18433104201</v>
+        <v>1523.64576453184</v>
       </c>
       <c r="V25" t="n">
-        <v>1194.298585981532</v>
+        <v>1249.760019471362</v>
       </c>
       <c r="W25" t="n">
-        <v>915.228921490406</v>
+        <v>970.6903549802362</v>
       </c>
       <c r="X25" t="n">
-        <v>776.6088114539414</v>
+        <v>732.3464928399196</v>
       </c>
       <c r="Y25" t="n">
-        <v>776.6088114539414</v>
+        <v>507.6107942286843</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2116.361279941242</v>
+        <v>1335.061281062486</v>
       </c>
       <c r="C26" t="n">
-        <v>1706.236689254512</v>
+        <v>1335.061281062486</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.772759347573</v>
+        <v>1316.348755375533</v>
       </c>
       <c r="E26" t="n">
-        <v>887.4325438644696</v>
+        <v>902.0085398924296</v>
       </c>
       <c r="F26" t="n">
-        <v>466.4021318181572</v>
+        <v>480.9781278461171</v>
       </c>
       <c r="G26" t="n">
-        <v>59.15191201140038</v>
+        <v>73.72790803936036</v>
       </c>
       <c r="H26" t="n">
-        <v>59.15191201140038</v>
+        <v>73.72790803936036</v>
       </c>
       <c r="I26" t="n">
         <v>44.3592192980305</v>
       </c>
       <c r="J26" t="n">
-        <v>135.8034243571914</v>
+        <v>421.4971183704485</v>
       </c>
       <c r="K26" t="n">
-        <v>231.8322154312254</v>
+        <v>970.4424571835759</v>
       </c>
       <c r="L26" t="n">
-        <v>780.7775542443528</v>
+        <v>1104.519877509942</v>
       </c>
       <c r="M26" t="n">
-        <v>1329.72289305748</v>
+        <v>1266.532963741037</v>
       </c>
       <c r="N26" t="n">
-        <v>1878.668231870608</v>
+        <v>1433.036183480245</v>
       </c>
       <c r="O26" t="n">
-        <v>2030.491719989686</v>
+        <v>1597.151310377776</v>
       </c>
       <c r="P26" t="n">
         <v>2146.096649190903</v>
@@ -6253,25 +6253,25 @@
         <v>2217.960964901525</v>
       </c>
       <c r="S26" t="n">
-        <v>2116.361279941242</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="T26" t="n">
-        <v>2116.361279941242</v>
+        <v>2002.224707323433</v>
       </c>
       <c r="U26" t="n">
-        <v>2116.361279941242</v>
+        <v>1745.282460726976</v>
       </c>
       <c r="V26" t="n">
-        <v>2116.361279941242</v>
+        <v>1745.282460726976</v>
       </c>
       <c r="W26" t="n">
-        <v>2116.361279941242</v>
+        <v>1745.282460726976</v>
       </c>
       <c r="X26" t="n">
-        <v>2116.361279941242</v>
+        <v>1745.282460726976</v>
       </c>
       <c r="Y26" t="n">
-        <v>2116.361279941242</v>
+        <v>1745.282460726976</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>44.3592192980305</v>
       </c>
       <c r="I27" t="n">
-        <v>44.3592192980305</v>
+        <v>50.7099621480966</v>
       </c>
       <c r="J27" t="n">
-        <v>66.73329645891499</v>
+        <v>316.7524432836144</v>
       </c>
       <c r="K27" t="n">
-        <v>136.626862031039</v>
+        <v>386.6460088557383</v>
       </c>
       <c r="L27" t="n">
-        <v>659.8161494817778</v>
+        <v>499.3871623370179</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.761488294905</v>
+        <v>1048.332501150145</v>
       </c>
       <c r="N27" t="n">
-        <v>1357.689715862087</v>
+        <v>1197.260728717327</v>
       </c>
       <c r="O27" t="n">
-        <v>1906.635054675214</v>
+        <v>1324.501944394902</v>
       </c>
       <c r="P27" t="n">
-        <v>2000.92745621167</v>
+        <v>1517.273804574956</v>
       </c>
       <c r="Q27" t="n">
-        <v>2043.742154981673</v>
+        <v>1966.058660348733</v>
       </c>
       <c r="R27" t="n">
         <v>2043.742154981673</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.196828569315</v>
+        <v>1056.580069287264</v>
       </c>
       <c r="C28" t="n">
-        <v>936.1034561310314</v>
+        <v>885.4866968489805</v>
       </c>
       <c r="D28" t="n">
-        <v>776.6088114539414</v>
+        <v>725.9920521718905</v>
       </c>
       <c r="E28" t="n">
-        <v>615.6979963222609</v>
+        <v>565.08123704021</v>
       </c>
       <c r="F28" t="n">
-        <v>451.0668704328521</v>
+        <v>400.4501111508013</v>
       </c>
       <c r="G28" t="n">
-        <v>284.4794881193791</v>
+        <v>233.8627288373282</v>
       </c>
       <c r="H28" t="n">
-        <v>140.7667835452168</v>
+        <v>90.15002426316602</v>
       </c>
       <c r="I28" t="n">
         <v>44.3592192980305</v>
       </c>
       <c r="J28" t="n">
-        <v>104.3836811886883</v>
+        <v>104.3836811886884</v>
       </c>
       <c r="K28" t="n">
-        <v>334.4326839223723</v>
+        <v>334.4326839223724</v>
       </c>
       <c r="L28" t="n">
-        <v>690.9395356216182</v>
+        <v>690.9395356216183</v>
       </c>
       <c r="M28" t="n">
         <v>1082.06502924696</v>
@@ -6414,22 +6414,22 @@
         <v>2217.960964901525</v>
       </c>
       <c r="T28" t="n">
-        <v>2217.960964901525</v>
+        <v>1981.245081493338</v>
       </c>
       <c r="U28" t="n">
-        <v>2217.960964901525</v>
+        <v>1981.245081493338</v>
       </c>
       <c r="V28" t="n">
-        <v>2037.045760206037</v>
+        <v>1707.35933643286</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.976095714911</v>
+        <v>1707.35933643286</v>
       </c>
       <c r="X28" t="n">
-        <v>1519.632233574594</v>
+        <v>1469.015474292544</v>
       </c>
       <c r="Y28" t="n">
-        <v>1294.896534963359</v>
+        <v>1244.279775681308</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>494.7583200856728</v>
+        <v>1416.380894018567</v>
       </c>
       <c r="C29" t="n">
-        <v>494.7583200856728</v>
+        <v>1006.256303331837</v>
       </c>
       <c r="D29" t="n">
-        <v>494.7583200856728</v>
+        <v>601.7923734248978</v>
       </c>
       <c r="E29" t="n">
-        <v>494.7583200856728</v>
+        <v>187.4521579417946</v>
       </c>
       <c r="F29" t="n">
-        <v>73.72790803936036</v>
+        <v>187.4521579417946</v>
       </c>
       <c r="G29" t="n">
-        <v>73.72790803936036</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="H29" t="n">
-        <v>73.72790803936036</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="I29" t="n">
         <v>44.3592192980305</v>
       </c>
       <c r="J29" t="n">
-        <v>421.4971183704485</v>
+        <v>306.79309007276</v>
       </c>
       <c r="K29" t="n">
-        <v>878.784365347345</v>
+        <v>855.7384288858874</v>
       </c>
       <c r="L29" t="n">
-        <v>1012.861785673712</v>
+        <v>989.815849212254</v>
       </c>
       <c r="M29" t="n">
-        <v>1174.874871904806</v>
+        <v>1151.828935443348</v>
       </c>
       <c r="N29" t="n">
-        <v>1341.378091644014</v>
+        <v>1318.332155182556</v>
       </c>
       <c r="O29" t="n">
-        <v>1493.201579763092</v>
+        <v>1470.155643301635</v>
       </c>
       <c r="P29" t="n">
-        <v>1608.80650896431</v>
+        <v>2019.100982114762</v>
       </c>
       <c r="Q29" t="n">
         <v>2086.405507087817</v>
@@ -6490,25 +6490,25 @@
         <v>2217.960964901525</v>
       </c>
       <c r="S29" t="n">
-        <v>2116.361279941242</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="T29" t="n">
-        <v>1900.62502236315</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="U29" t="n">
-        <v>1643.682775766693</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="V29" t="n">
-        <v>1293.845221103174</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="W29" t="n">
-        <v>910.0849202383426</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="X29" t="n">
-        <v>509.4415224072952</v>
+        <v>1817.317567070477</v>
       </c>
       <c r="Y29" t="n">
-        <v>494.7583200856728</v>
+        <v>1416.380894018567</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>44.3592192980305</v>
       </c>
       <c r="I30" t="n">
-        <v>44.3592192980305</v>
+        <v>50.7099621480966</v>
       </c>
       <c r="J30" t="n">
-        <v>66.73329645891499</v>
+        <v>316.7524432836144</v>
       </c>
       <c r="K30" t="n">
-        <v>487.4641952749057</v>
+        <v>865.6977820967418</v>
       </c>
       <c r="L30" t="n">
-        <v>1036.409534088033</v>
+        <v>978.4389355780213</v>
       </c>
       <c r="M30" t="n">
-        <v>1175.812674153786</v>
+        <v>1117.842075643774</v>
       </c>
       <c r="N30" t="n">
-        <v>1324.740901720967</v>
+        <v>1266.770303210955</v>
       </c>
       <c r="O30" t="n">
-        <v>1451.982117398543</v>
+        <v>1394.011518888531</v>
       </c>
       <c r="P30" t="n">
-        <v>2000.92745621167</v>
+        <v>1517.273804574956</v>
       </c>
       <c r="Q30" t="n">
-        <v>2043.742154981673</v>
+        <v>1966.058660348733</v>
       </c>
       <c r="R30" t="n">
         <v>2043.742154981673</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>676.8850593500895</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="C31" t="n">
-        <v>676.8850593500895</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="D31" t="n">
-        <v>676.8850593500895</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="E31" t="n">
-        <v>615.6979963222609</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="F31" t="n">
-        <v>451.0668704328521</v>
+        <v>155.2799619452312</v>
       </c>
       <c r="G31" t="n">
-        <v>284.4794881193791</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="H31" t="n">
-        <v>140.7667835452168</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="I31" t="n">
-        <v>44.3592192980305</v>
+        <v>44.35921929803059</v>
       </c>
       <c r="J31" t="n">
         <v>104.3836811886884</v>
@@ -6645,28 +6645,28 @@
         <v>2217.960964901525</v>
       </c>
       <c r="R31" t="n">
-        <v>2162.499531411695</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="S31" t="n">
-        <v>1987.662197789836</v>
+        <v>2043.123631279667</v>
       </c>
       <c r="T31" t="n">
-        <v>1750.94631438165</v>
+        <v>1806.40774787148</v>
       </c>
       <c r="U31" t="n">
-        <v>1468.18433104201</v>
+        <v>1523.64576453184</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.298585981532</v>
+        <v>1249.760019471362</v>
       </c>
       <c r="W31" t="n">
-        <v>915.228921490406</v>
+        <v>970.6903549802362</v>
       </c>
       <c r="X31" t="n">
-        <v>676.8850593500895</v>
+        <v>732.3464928399196</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.8850593500895</v>
+        <v>507.6107942286843</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1289.854437514176</v>
+        <v>1302.656644116133</v>
       </c>
       <c r="C32" t="n">
-        <v>879.7298468274462</v>
+        <v>892.5320534294032</v>
       </c>
       <c r="D32" t="n">
-        <v>879.7298468274462</v>
+        <v>488.0681235224637</v>
       </c>
       <c r="E32" t="n">
-        <v>465.3896313443429</v>
+        <v>73.72790803936036</v>
       </c>
       <c r="F32" t="n">
-        <v>44.3592192980305</v>
+        <v>73.72790803936036</v>
       </c>
       <c r="G32" t="n">
-        <v>44.3592192980305</v>
+        <v>73.72790803936036</v>
       </c>
       <c r="H32" t="n">
-        <v>44.3592192980305</v>
+        <v>73.72790803936036</v>
       </c>
       <c r="I32" t="n">
         <v>44.3592192980305</v>
       </c>
       <c r="J32" t="n">
-        <v>94.72129148271935</v>
+        <v>421.4971183704485</v>
       </c>
       <c r="K32" t="n">
-        <v>190.7500825567535</v>
+        <v>878.784365347345</v>
       </c>
       <c r="L32" t="n">
-        <v>324.82750288312</v>
+        <v>1012.861785673712</v>
       </c>
       <c r="M32" t="n">
-        <v>873.7728416962474</v>
+        <v>1174.874871904806</v>
       </c>
       <c r="N32" t="n">
-        <v>1422.718180509375</v>
+        <v>1341.378091644014</v>
       </c>
       <c r="O32" t="n">
-        <v>1574.541668628453</v>
+        <v>1493.201579763092</v>
       </c>
       <c r="P32" t="n">
-        <v>2123.487007441581</v>
+        <v>1608.80650896431</v>
       </c>
       <c r="Q32" t="n">
-        <v>2190.791532414636</v>
+        <v>2086.405507087817</v>
       </c>
       <c r="R32" t="n">
         <v>2217.960964901525</v>
       </c>
       <c r="S32" t="n">
-        <v>2217.960964901525</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="T32" t="n">
-        <v>2101.012290230575</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.012290230575</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.012290230575</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="W32" t="n">
-        <v>2101.012290230575</v>
+        <v>2113.52122161167</v>
       </c>
       <c r="X32" t="n">
-        <v>2101.012290230575</v>
+        <v>1712.877823780623</v>
       </c>
       <c r="Y32" t="n">
-        <v>1700.075617178665</v>
+        <v>1712.877823780623</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>44.3592192980305</v>
       </c>
       <c r="I33" t="n">
-        <v>44.3592192980305</v>
+        <v>50.7099621480966</v>
       </c>
       <c r="J33" t="n">
-        <v>310.4017004335482</v>
+        <v>316.7524432836144</v>
       </c>
       <c r="K33" t="n">
-        <v>380.2952660056722</v>
+        <v>386.6460088557383</v>
       </c>
       <c r="L33" t="n">
-        <v>493.0364194869517</v>
+        <v>499.3871623370179</v>
       </c>
       <c r="M33" t="n">
-        <v>1041.981758300079</v>
+        <v>638.7903024027705</v>
       </c>
       <c r="N33" t="n">
-        <v>1373.423681993865</v>
+        <v>787.718529969952</v>
       </c>
       <c r="O33" t="n">
-        <v>1500.66489767144</v>
+        <v>1336.663868783079</v>
       </c>
       <c r="P33" t="n">
-        <v>1594.957299207897</v>
+        <v>1885.609207596207</v>
       </c>
       <c r="Q33" t="n">
-        <v>2043.742154981673</v>
+        <v>1966.058660348733</v>
       </c>
       <c r="R33" t="n">
         <v>2043.742154981673</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.1493607388542</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="C34" t="n">
-        <v>452.1493607388542</v>
+        <v>148.8177153963564</v>
       </c>
       <c r="D34" t="n">
-        <v>452.1493607388542</v>
+        <v>148.8177153963564</v>
       </c>
       <c r="E34" t="n">
-        <v>452.1493607388542</v>
+        <v>148.8177153963564</v>
       </c>
       <c r="F34" t="n">
-        <v>451.0668704328521</v>
+        <v>148.8177153963564</v>
       </c>
       <c r="G34" t="n">
-        <v>284.4794881193791</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="H34" t="n">
-        <v>140.7667835452168</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="I34" t="n">
         <v>44.3592192980305</v>
@@ -6882,28 +6882,28 @@
         <v>2217.960964901525</v>
       </c>
       <c r="R34" t="n">
-        <v>2162.499531411695</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="S34" t="n">
-        <v>1987.662197789836</v>
+        <v>2043.123631279667</v>
       </c>
       <c r="T34" t="n">
-        <v>1750.94631438165</v>
+        <v>1806.40774787148</v>
       </c>
       <c r="U34" t="n">
-        <v>1468.18433104201</v>
+        <v>1523.64576453184</v>
       </c>
       <c r="V34" t="n">
-        <v>1194.298585981532</v>
+        <v>1249.760019471362</v>
       </c>
       <c r="W34" t="n">
-        <v>915.228921490406</v>
+        <v>970.6903549802362</v>
       </c>
       <c r="X34" t="n">
-        <v>676.8850593500895</v>
+        <v>732.3464928399196</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.1493607388542</v>
+        <v>507.6107942286843</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1691.443996541142</v>
+        <v>1490.403842698661</v>
       </c>
       <c r="C35" t="n">
-        <v>1691.443996541142</v>
+        <v>1286.980066634203</v>
       </c>
       <c r="D35" t="n">
         <v>1286.980066634203</v>
@@ -6937,25 +6937,25 @@
         <v>44.3592192980305</v>
       </c>
       <c r="J35" t="n">
-        <v>421.4971183704485</v>
+        <v>94.72129148271935</v>
       </c>
       <c r="K35" t="n">
-        <v>517.5259094444826</v>
+        <v>643.6666302958467</v>
       </c>
       <c r="L35" t="n">
-        <v>651.6033297708492</v>
+        <v>777.7440506222133</v>
       </c>
       <c r="M35" t="n">
-        <v>1200.548668583976</v>
+        <v>939.7571368533078</v>
       </c>
       <c r="N35" t="n">
-        <v>1749.494007397104</v>
+        <v>1106.260356592516</v>
       </c>
       <c r="O35" t="n">
-        <v>1901.317495516183</v>
+        <v>1258.083844711594</v>
       </c>
       <c r="P35" t="n">
-        <v>2016.9224247174</v>
+        <v>1608.80650896431</v>
       </c>
       <c r="Q35" t="n">
         <v>2086.405507087817</v>
@@ -6964,25 +6964,25 @@
         <v>2217.960964901525</v>
       </c>
       <c r="S35" t="n">
-        <v>2217.960964901525</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="T35" t="n">
-        <v>2217.960964901525</v>
+        <v>1900.62502236315</v>
       </c>
       <c r="U35" t="n">
-        <v>2092.380669593053</v>
+        <v>1900.62502236315</v>
       </c>
       <c r="V35" t="n">
-        <v>2092.380669593053</v>
+        <v>1900.62502236315</v>
       </c>
       <c r="W35" t="n">
-        <v>2092.380669593053</v>
+        <v>1900.62502236315</v>
       </c>
       <c r="X35" t="n">
-        <v>2092.380669593053</v>
+        <v>1900.62502236315</v>
       </c>
       <c r="Y35" t="n">
-        <v>1691.443996541142</v>
+        <v>1900.62502236315</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>44.3592192980305</v>
       </c>
       <c r="I36" t="n">
-        <v>44.3592192980305</v>
+        <v>50.7099621480966</v>
       </c>
       <c r="J36" t="n">
-        <v>66.73329645891499</v>
+        <v>316.7524432836144</v>
       </c>
       <c r="K36" t="n">
-        <v>147.0578847545523</v>
+        <v>865.6977820967418</v>
       </c>
       <c r="L36" t="n">
-        <v>259.7990382358319</v>
+        <v>978.4389355780213</v>
       </c>
       <c r="M36" t="n">
-        <v>808.7443770489592</v>
+        <v>1117.842075643774</v>
       </c>
       <c r="N36" t="n">
-        <v>1357.689715862087</v>
+        <v>1266.770303210955</v>
       </c>
       <c r="O36" t="n">
-        <v>1906.635054675214</v>
+        <v>1394.011518888531</v>
       </c>
       <c r="P36" t="n">
-        <v>2000.92745621167</v>
+        <v>1517.273804574956</v>
       </c>
       <c r="Q36" t="n">
-        <v>2043.742154981673</v>
+        <v>1966.058660348733</v>
       </c>
       <c r="R36" t="n">
         <v>2043.742154981673</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>676.8850593500895</v>
+        <v>319.9110878346399</v>
       </c>
       <c r="C37" t="n">
-        <v>676.8850593500895</v>
+        <v>148.8177153963564</v>
       </c>
       <c r="D37" t="n">
-        <v>676.8850593500895</v>
+        <v>148.8177153963564</v>
       </c>
       <c r="E37" t="n">
-        <v>615.6979963222609</v>
+        <v>148.8177153963564</v>
       </c>
       <c r="F37" t="n">
-        <v>451.0668704328521</v>
+        <v>148.8177153963564</v>
       </c>
       <c r="G37" t="n">
-        <v>284.4794881193791</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="H37" t="n">
-        <v>140.7667835452168</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="I37" t="n">
         <v>44.3592192980305</v>
       </c>
       <c r="J37" t="n">
-        <v>104.3836811886884</v>
+        <v>104.3836811886881</v>
       </c>
       <c r="K37" t="n">
-        <v>334.4326839223724</v>
+        <v>334.4326839223722</v>
       </c>
       <c r="L37" t="n">
-        <v>690.9395356216183</v>
+        <v>690.9395356216181</v>
       </c>
       <c r="M37" t="n">
         <v>1082.06502924696</v>
@@ -7119,28 +7119,28 @@
         <v>2217.960964901525</v>
       </c>
       <c r="R37" t="n">
-        <v>2162.499531411695</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="S37" t="n">
-        <v>1987.662197789836</v>
+        <v>2043.123631279667</v>
       </c>
       <c r="T37" t="n">
-        <v>1750.94631438165</v>
+        <v>1806.40774787148</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.18433104201</v>
+        <v>1523.64576453184</v>
       </c>
       <c r="V37" t="n">
-        <v>1194.298585981532</v>
+        <v>1249.760019471362</v>
       </c>
       <c r="W37" t="n">
-        <v>915.228921490406</v>
+        <v>970.6903549802362</v>
       </c>
       <c r="X37" t="n">
-        <v>676.8850593500895</v>
+        <v>732.3464928399196</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.8850593500895</v>
+        <v>507.6107942286843</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1322.379799411921</v>
+        <v>1305.203427224843</v>
       </c>
       <c r="C38" t="n">
-        <v>912.2552087251914</v>
+        <v>895.0788365381128</v>
       </c>
       <c r="D38" t="n">
-        <v>912.2552087251914</v>
+        <v>490.6149066311733</v>
       </c>
       <c r="E38" t="n">
-        <v>497.9149932420881</v>
+        <v>76.27469114807002</v>
       </c>
       <c r="F38" t="n">
-        <v>76.8845811957757</v>
+        <v>73.72790803936036</v>
       </c>
       <c r="G38" t="n">
-        <v>76.8845811957757</v>
+        <v>73.72790803936036</v>
       </c>
       <c r="H38" t="n">
         <v>73.72790803936036</v>
@@ -7180,22 +7180,22 @@
         <v>190.7500825567535</v>
       </c>
       <c r="L38" t="n">
-        <v>324.82750288312</v>
+        <v>739.6954213698808</v>
       </c>
       <c r="M38" t="n">
-        <v>873.7728416962474</v>
+        <v>1288.640760183008</v>
       </c>
       <c r="N38" t="n">
-        <v>1422.718180509375</v>
+        <v>1837.586098996136</v>
       </c>
       <c r="O38" t="n">
-        <v>1574.541668628453</v>
+        <v>1989.409587115214</v>
       </c>
       <c r="P38" t="n">
-        <v>1690.146597829671</v>
+        <v>2105.014516316432</v>
       </c>
       <c r="Q38" t="n">
-        <v>2167.745595953178</v>
+        <v>2172.319041289486</v>
       </c>
       <c r="R38" t="n">
         <v>2217.960964901525</v>
@@ -7213,13 +7213,13 @@
         <v>2116.361279941242</v>
       </c>
       <c r="W38" t="n">
-        <v>1732.600979076411</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="X38" t="n">
-        <v>1732.600979076411</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="Y38" t="n">
-        <v>1732.600979076411</v>
+        <v>1715.424606889332</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>44.3592192980305</v>
       </c>
       <c r="I39" t="n">
-        <v>44.3592192980305</v>
+        <v>50.7099621480966</v>
       </c>
       <c r="J39" t="n">
-        <v>66.73329645891499</v>
+        <v>316.7524432836144</v>
       </c>
       <c r="K39" t="n">
-        <v>615.6786352720424</v>
+        <v>865.6977820967418</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4197887533219</v>
+        <v>978.4389355780213</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.365127566449</v>
+        <v>1117.842075643774</v>
       </c>
       <c r="N39" t="n">
-        <v>1779.393838997638</v>
+        <v>1266.770303210955</v>
       </c>
       <c r="O39" t="n">
-        <v>1906.635054675214</v>
+        <v>1394.011518888531</v>
       </c>
       <c r="P39" t="n">
-        <v>2000.92745621167</v>
+        <v>1517.273804574956</v>
       </c>
       <c r="Q39" t="n">
-        <v>2043.742154981673</v>
+        <v>1966.058660348733</v>
       </c>
       <c r="R39" t="n">
         <v>2043.742154981673</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1107.196828569315</v>
+        <v>706.1657446162858</v>
       </c>
       <c r="C40" t="n">
-        <v>936.1034561310314</v>
+        <v>535.0723721780023</v>
       </c>
       <c r="D40" t="n">
-        <v>776.6088114539414</v>
+        <v>375.5777275009123</v>
       </c>
       <c r="E40" t="n">
-        <v>615.6979963222609</v>
+        <v>375.5777275009123</v>
       </c>
       <c r="F40" t="n">
-        <v>451.0668704328521</v>
+        <v>210.9466016115035</v>
       </c>
       <c r="G40" t="n">
-        <v>284.4794881193791</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="H40" t="n">
-        <v>140.7667835452168</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="I40" t="n">
         <v>44.3592192980305</v>
@@ -7356,28 +7356,28 @@
         <v>2217.960964901525</v>
       </c>
       <c r="R40" t="n">
-        <v>2162.499531411695</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="S40" t="n">
-        <v>1987.662197789836</v>
+        <v>2043.123631279667</v>
       </c>
       <c r="T40" t="n">
-        <v>1987.662197789836</v>
+        <v>1806.40774787148</v>
       </c>
       <c r="U40" t="n">
-        <v>1987.662197789836</v>
+        <v>1523.64576453184</v>
       </c>
       <c r="V40" t="n">
-        <v>1713.776452729358</v>
+        <v>1523.64576453184</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.706788238233</v>
+        <v>1244.576100040714</v>
       </c>
       <c r="X40" t="n">
-        <v>1434.706788238233</v>
+        <v>1006.232237900398</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.896534963359</v>
+        <v>893.8654510103302</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>858.9477398916999</v>
+        <v>1305.203427224843</v>
       </c>
       <c r="C41" t="n">
-        <v>448.82314920497</v>
+        <v>895.0788365381128</v>
       </c>
       <c r="D41" t="n">
-        <v>44.3592192980305</v>
+        <v>490.6149066311733</v>
       </c>
       <c r="E41" t="n">
-        <v>44.3592192980305</v>
+        <v>490.6149066311733</v>
       </c>
       <c r="F41" t="n">
-        <v>44.3592192980305</v>
+        <v>69.58449458486086</v>
       </c>
       <c r="G41" t="n">
         <v>44.3592192980305</v>
@@ -7414,49 +7414,49 @@
         <v>421.4971183704485</v>
       </c>
       <c r="K41" t="n">
-        <v>517.5259094444826</v>
+        <v>572.439622811576</v>
       </c>
       <c r="L41" t="n">
-        <v>651.6033297708492</v>
+        <v>706.5170431379426</v>
       </c>
       <c r="M41" t="n">
-        <v>1174.874871904806</v>
+        <v>868.530129369037</v>
       </c>
       <c r="N41" t="n">
-        <v>1341.378091644014</v>
+        <v>1035.033349108245</v>
       </c>
       <c r="O41" t="n">
-        <v>1493.201579763092</v>
+        <v>1186.856837227323</v>
       </c>
       <c r="P41" t="n">
-        <v>1608.80650896431</v>
+        <v>1735.802176040451</v>
       </c>
       <c r="Q41" t="n">
-        <v>2086.405507087817</v>
+        <v>2213.401174163958</v>
       </c>
       <c r="R41" t="n">
         <v>2217.960964901525</v>
       </c>
       <c r="S41" t="n">
-        <v>2217.960964901525</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="T41" t="n">
-        <v>2217.960964901525</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="U41" t="n">
-        <v>2217.960964901525</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="V41" t="n">
-        <v>2070.748990439147</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="W41" t="n">
-        <v>2070.748990439147</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="X41" t="n">
-        <v>1670.105592608099</v>
+        <v>2116.361279941242</v>
       </c>
       <c r="Y41" t="n">
-        <v>1269.168919556189</v>
+        <v>1715.424606889332</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>44.3592192980305</v>
       </c>
       <c r="I42" t="n">
-        <v>44.3592192980305</v>
+        <v>50.7099621480966</v>
       </c>
       <c r="J42" t="n">
-        <v>66.73329645891499</v>
+        <v>316.7524432836144</v>
       </c>
       <c r="K42" t="n">
-        <v>458.4634809148629</v>
+        <v>865.6977820967418</v>
       </c>
       <c r="L42" t="n">
-        <v>1007.40881972799</v>
+        <v>978.4389355780213</v>
       </c>
       <c r="M42" t="n">
-        <v>1146.811959793743</v>
+        <v>1117.842075643774</v>
       </c>
       <c r="N42" t="n">
-        <v>1295.740187360924</v>
+        <v>1266.770303210955</v>
       </c>
       <c r="O42" t="n">
-        <v>1422.9814030385</v>
+        <v>1394.011518888531</v>
       </c>
       <c r="P42" t="n">
-        <v>1517.273804574956</v>
+        <v>1594.957299207897</v>
       </c>
       <c r="Q42" t="n">
-        <v>1966.058660348733</v>
+        <v>2043.742154981673</v>
       </c>
       <c r="R42" t="n">
         <v>2043.742154981673</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>535.8580515450844</v>
+        <v>706.1657446162858</v>
       </c>
       <c r="C43" t="n">
-        <v>364.764679106801</v>
+        <v>535.0723721780023</v>
       </c>
       <c r="D43" t="n">
-        <v>205.270034429711</v>
+        <v>375.5777275009123</v>
       </c>
       <c r="E43" t="n">
-        <v>44.3592192980305</v>
+        <v>375.5777275009123</v>
       </c>
       <c r="F43" t="n">
-        <v>44.3592192980305</v>
+        <v>210.9466016115035</v>
       </c>
       <c r="G43" t="n">
         <v>44.3592192980305</v>
@@ -7572,7 +7572,7 @@
         <v>104.3836811886883</v>
       </c>
       <c r="K43" t="n">
-        <v>334.4326839223723</v>
+        <v>334.4326839223724</v>
       </c>
       <c r="L43" t="n">
         <v>690.9395356216183</v>
@@ -7593,28 +7593,28 @@
         <v>2217.960964901525</v>
       </c>
       <c r="R43" t="n">
-        <v>2162.499531411695</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="S43" t="n">
-        <v>1987.662197789836</v>
+        <v>2043.123631279667</v>
       </c>
       <c r="T43" t="n">
-        <v>1750.94631438165</v>
+        <v>1806.40774787148</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.18433104201</v>
+        <v>1523.64576453184</v>
       </c>
       <c r="V43" t="n">
-        <v>1194.298585981532</v>
+        <v>1249.760019471362</v>
       </c>
       <c r="W43" t="n">
-        <v>915.228921490406</v>
+        <v>1249.760019471362</v>
       </c>
       <c r="X43" t="n">
-        <v>676.8850593500895</v>
+        <v>1011.416157331045</v>
       </c>
       <c r="Y43" t="n">
-        <v>535.8580515450844</v>
+        <v>893.8654510103302</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>494.7583200856728</v>
+        <v>1680.53817518156</v>
       </c>
       <c r="C44" t="n">
-        <v>494.7583200856728</v>
+        <v>1270.41358449483</v>
       </c>
       <c r="D44" t="n">
-        <v>494.7583200856728</v>
+        <v>865.9496545878906</v>
       </c>
       <c r="E44" t="n">
-        <v>494.7583200856728</v>
+        <v>451.6094391047873</v>
       </c>
       <c r="F44" t="n">
-        <v>73.72790803936036</v>
+        <v>451.6094391047873</v>
       </c>
       <c r="G44" t="n">
-        <v>73.72790803936036</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="H44" t="n">
-        <v>73.72790803936036</v>
+        <v>44.3592192980305</v>
       </c>
       <c r="I44" t="n">
         <v>44.3592192980305</v>
@@ -7660,40 +7660,40 @@
         <v>813.6164160019437</v>
       </c>
       <c r="N44" t="n">
-        <v>1362.561754815071</v>
+        <v>980.1196357411513</v>
       </c>
       <c r="O44" t="n">
-        <v>1514.38524293415</v>
+        <v>1131.94312386023</v>
       </c>
       <c r="P44" t="n">
-        <v>1629.990172135367</v>
+        <v>1608.80650896431</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.589170258875</v>
+        <v>2086.405507087817</v>
       </c>
       <c r="R44" t="n">
         <v>2217.960964901525</v>
       </c>
       <c r="S44" t="n">
-        <v>2116.361279941242</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="T44" t="n">
-        <v>1900.62502236315</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="U44" t="n">
-        <v>1643.682775766693</v>
+        <v>2217.960964901525</v>
       </c>
       <c r="V44" t="n">
-        <v>1293.845221103174</v>
+        <v>2090.759354846049</v>
       </c>
       <c r="W44" t="n">
-        <v>910.0849202383426</v>
+        <v>2090.759354846049</v>
       </c>
       <c r="X44" t="n">
-        <v>509.4415224072952</v>
+        <v>2090.759354846049</v>
       </c>
       <c r="Y44" t="n">
-        <v>494.7583200856728</v>
+        <v>2090.759354846049</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>44.3592192980305</v>
       </c>
       <c r="I45" t="n">
-        <v>44.3592192980305</v>
+        <v>50.7099621480966</v>
       </c>
       <c r="J45" t="n">
-        <v>310.4017004335482</v>
+        <v>316.7524432836144</v>
       </c>
       <c r="K45" t="n">
-        <v>859.3470392466756</v>
+        <v>865.6977820967418</v>
       </c>
       <c r="L45" t="n">
-        <v>972.0881927279552</v>
+        <v>1007.40881972799</v>
       </c>
       <c r="M45" t="n">
-        <v>1111.491332793708</v>
+        <v>1146.811959793743</v>
       </c>
       <c r="N45" t="n">
-        <v>1260.419560360889</v>
+        <v>1295.740187360924</v>
       </c>
       <c r="O45" t="n">
-        <v>1387.660776038465</v>
+        <v>1422.9814030385</v>
       </c>
       <c r="P45" t="n">
-        <v>1594.957299207897</v>
+        <v>1517.273804574956</v>
       </c>
       <c r="Q45" t="n">
-        <v>2043.742154981673</v>
+        <v>1966.058660348733</v>
       </c>
       <c r="R45" t="n">
         <v>2043.742154981673</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5193188359355</v>
+        <v>264.4496543448098</v>
       </c>
       <c r="C46" t="n">
-        <v>372.425946397652</v>
+        <v>93.35628190652631</v>
       </c>
       <c r="D46" t="n">
-        <v>372.425946397652</v>
+        <v>93.35628190652631</v>
       </c>
       <c r="E46" t="n">
-        <v>372.425946397652</v>
+        <v>93.35628190652631</v>
       </c>
       <c r="F46" t="n">
-        <v>207.7948205082432</v>
+        <v>93.35628190652631</v>
       </c>
       <c r="G46" t="n">
         <v>44.3592192980305</v>
@@ -7806,7 +7806,7 @@
         <v>44.3592192980305</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3836811886884</v>
+        <v>104.3836811886883</v>
       </c>
       <c r="K46" t="n">
         <v>334.4326839223724</v>
@@ -7821,7 +7821,7 @@
         <v>1462.34321152131</v>
       </c>
       <c r="O46" t="n">
-        <v>1813.752202370316</v>
+        <v>1813.752202370317</v>
       </c>
       <c r="P46" t="n">
         <v>2098.019799455005</v>
@@ -7845,13 +7845,13 @@
         <v>1194.298585981532</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.298585981532</v>
+        <v>915.228921490406</v>
       </c>
       <c r="X46" t="n">
-        <v>955.9547238412151</v>
+        <v>676.8850593500895</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.2190252299798</v>
+        <v>452.1493607388542</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574859</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>232.5803491573233</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8224,13 +8224,13 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1981341283841</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M8" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>205.1561293621962</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428707</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>364.78946790506</v>
+        <v>236.5110163129982</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
@@ -8774,13 +8774,13 @@
         <v>451.464009186062</v>
       </c>
       <c r="L12" t="n">
-        <v>408.1836173586321</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>69.99132016723723</v>
+        <v>61.68918009774839</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8853,10 +8853,10 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>309.9067948773217</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>220.0543431932239</v>
       </c>
       <c r="N13" t="n">
         <v>335.3881832803894</v>
@@ -8868,7 +8868,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.396762383149209</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>325.8261426633023</v>
+        <v>315.5336193178321</v>
       </c>
       <c r="K14" t="n">
         <v>425.0647915073648</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>358.413988318415</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>368.7065116638854</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>86.33446895060933</v>
       </c>
       <c r="L15" t="n">
-        <v>408.1836173586321</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>80.8850995751981</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>371.6310172718624</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.5370898876261</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>426.8187203332011</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>10.39012307478899</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>5.027173475432932</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
@@ -9093,7 +9093,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>220.0543431932239</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
@@ -9105,7 +9105,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.78370943787972</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>258.4414593067538</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>353.8784999263814</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>368.7065116638854</v>
       </c>
       <c r="P17" t="n">
-        <v>236.5110163129982</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9245,10 +9245,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>94.63660902009819</v>
+        <v>451.464009186062</v>
       </c>
       <c r="L18" t="n">
-        <v>408.1836173586321</v>
+        <v>68.10407186549196</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>426.8187203332011</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.027173475432932</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>317.1506174091142</v>
+        <v>188.7541025071001</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9342,7 +9342,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.78370943787973</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>368.7065116638854</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>326.1595490570626</v>
+        <v>236.5110163129982</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>451.464009186062</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>371.6310172718624</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>147.9370637796914</v>
+        <v>61.68918009774845</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9561,7 +9561,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>201.1200093729693</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9573,13 +9573,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>189.8608178441882</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.396762383149209</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>457.4914623627205</v>
       </c>
       <c r="L23" t="n">
-        <v>59.42242491634767</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>390.8406591737706</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>386.305170781737</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>401.133182519241</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>250.7983409170728</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>483.8906800414176</v>
+        <v>99.47420065009874</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>413.6789886337118</v>
       </c>
       <c r="N24" t="n">
-        <v>360.2752783915238</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>10.39012307478899</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>41.49710391360811</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>457.4914623627205</v>
       </c>
       <c r="L26" t="n">
-        <v>419.0585035219806</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>390.8406591737706</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>386.305170781737</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>12.41579674591173</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>437.7175854665758</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>414.5940747166255</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>413.6789886337118</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>425.9637607429817</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>99.47420065009885</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>10.39012307478899</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195605</v>
       </c>
       <c r="K28" t="n">
         <v>208.3638319047618</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>214.2139379697381</v>
       </c>
       <c r="K29" t="n">
-        <v>364.9075312150125</v>
+        <v>457.4914623627204</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>437.7175854665758</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>354.3811446907745</v>
+        <v>483.8906800414176</v>
       </c>
       <c r="L30" t="n">
-        <v>440.6102882139877</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>459.2453911885567</v>
+        <v>29.26250924239292</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>10.39012307478899</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195605</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
         <v>208.3638319047618</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>364.9075312150125</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>390.8406591737706</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>386.305170781737</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>437.7175854665758</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>22.83802196901273</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>413.6789886337118</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>184.3572688147516</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>425.9637607429816</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>459.2453911885567</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>38.01490301264985</v>
       </c>
       <c r="R33" t="n">
-        <v>10.39012307478899</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>348.450858095238</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>457.4914623627205</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>390.8406591737706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>386.305170781737</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>237.4926616681798</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.20056302763885</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>10.53638658940746</v>
+        <v>483.8906800414176</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>413.6789886337118</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>404.057688127218</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>425.9637607429817</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>29.26250924239292</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>10.39012307478899</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195605</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
         <v>208.3638319047618</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>419.0585035219806</v>
       </c>
       <c r="M38" t="n">
         <v>390.8406591737706</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>46.11674566745475</v>
+        <v>41.49710391360787</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>483.8906800414176</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>413.6789886337118</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>356.6671554181895</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>29.26250924239292</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>10.39012307478899</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>55.46839734049838</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>364.9075312150125</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>437.7175854665758</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>325.0874938220444</v>
+        <v>483.8906800414176</v>
       </c>
       <c r="L42" t="n">
-        <v>440.6102882139877</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>107.7306856393022</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>10.39012307478899</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>386.305170781737</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>364.9075312150123</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>106.880812025337</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>13.35056666629423</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
@@ -11381,7 +11381,7 @@
         <v>483.8906800414176</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.26250924239287</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>114.1455774070458</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>10.39012307478899</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195605</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>391.8040619950765</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>119.9052303356542</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,19 +22758,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.7770789072673</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4884022672037</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100.0110699416575</v>
       </c>
       <c r="F5" t="n">
-        <v>6.422587464490391</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22846,13 +22846,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22959,10 +22959,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>82.68617307340648</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200.0859887503196</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>322.9791348851101</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>403.1777176086892</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>292.8135586421404</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.07500185391657</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>100.5836881106795</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>191.5504646812274</v>
+        <v>213.5788950023109</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3728241304924</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>257.4640512510282</v>
       </c>
     </row>
     <row r="12">
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>122.4387706120898</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.9215084903383</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.2755775284206</v>
       </c>
       <c r="I13" t="n">
         <v>95.44348860471447</v>
@@ -23466,13 +23466,13 @@
         <v>54.90681915493205</v>
       </c>
       <c r="S13" t="n">
-        <v>173.0889602856394</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>234.3487245741044</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.934363506244</v>
+        <v>22.4275131181214</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>328.5478479290971</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>403.1777176086892</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>292.8135586421404</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>29.07500185391657</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.600537692195743</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>213.5788950023109</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9215084903383</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.2755775284206</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>95.44348860471447</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.90681915493205</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.0889602856394</v>
       </c>
       <c r="T16" t="n">
-        <v>3.395382163867424</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>60.31457892362948</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>332.5971539425871</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>403.1777176086892</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>292.8135586421404</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>1.94948564682096</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>7.862437239434172</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9215084903383</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.2755775284206</v>
@@ -23943,7 +23943,7 @@
         <v>173.0889602856394</v>
       </c>
       <c r="T19" t="n">
-        <v>171.6250744433604</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>403.1777176086892</v>
+        <v>284.5030592454566</v>
       </c>
       <c r="H20" t="n">
-        <v>178.7051448099157</v>
+        <v>292.8135586421404</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.5788950023109</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3728241304924</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>124.7697588525222</v>
+        <v>164.9215084903383</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.2755775284206</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>79.86725888951405</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.90681915493205</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>206.7557296871231</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>29.07500185391657</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>100.5836881106795</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>213.5788950023109</v>
@@ -24268,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>237.8750215877407</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24372,19 +24372,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.9215084903383</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>32.4640423076919</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>95.44348860471447</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.90681915493205</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>98.72651458281342</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.893890177786</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>292.8135586421404</v>
       </c>
       <c r="I26" t="n">
-        <v>14.43023606768038</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>100.5836881106795</v>
       </c>
       <c r="T26" t="n">
-        <v>213.5788950023109</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3728241304924</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>50.11059168923031</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>173.0889602856394</v>
       </c>
       <c r="T28" t="n">
-        <v>234.3487245741044</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.934363506244</v>
       </c>
       <c r="V28" t="n">
-        <v>92.04083496134015</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>403.1777176086892</v>
+        <v>261.5157083513628</v>
       </c>
       <c r="H29" t="n">
         <v>292.8135586421404</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>29.07500185391657</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>100.5836881106795</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.5788950023109</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3728241304924</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.3909360229847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24846,19 +24846,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>98.72651458281344</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>55.10997326960958</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.2755775284206</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>95.44348860471447</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.90681915493205</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>403.1777176086892</v>
@@ -24937,7 +24937,7 @@
         <v>292.8135586421404</v>
       </c>
       <c r="I32" t="n">
-        <v>29.07500185391657</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>100.5836881106795</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>97.79970707807094</v>
+        <v>213.5788950023109</v>
       </c>
       <c r="U32" t="n">
         <v>254.3728241304924</v>
@@ -24979,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>377.1110401099068</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25086,16 +25086,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>161.9131492275726</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>61.5075973529956</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.2755775284206</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>95.44348860471447</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.90681915493205</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>204.6338064760494</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>100.5836881106795</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.5788950023109</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>130.048331775105</v>
+        <v>254.3728241304924</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>98.72651458281344</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>61.5075973529956</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.2755775284206</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.44348860471447</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.90681915493205</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>414.2987926482267</v>
       </c>
       <c r="G38" t="n">
         <v>403.1777176086892</v>
       </c>
       <c r="H38" t="n">
-        <v>289.6884522172892</v>
+        <v>292.8135586421404</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.2755775284206</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>95.44348860471447</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.90681915493205</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>234.3487245741044</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.934363506244</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.07619088299816</v>
+        <v>111.2452226039561</v>
       </c>
     </row>
     <row r="41">
@@ -25639,10 +25639,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>403.1777176086892</v>
+        <v>378.2046950747271</v>
       </c>
       <c r="H41" t="n">
         <v>292.8135586421404</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>100.5836881106795</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>213.5788950023109</v>
@@ -25687,13 +25687,13 @@
         <v>254.3728241304924</v>
       </c>
       <c r="V41" t="n">
-        <v>200.5993243991301</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.9215084903383</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.2755775284206</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>54.90681915493205</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.87160389816793</v>
+        <v>106.113142367615</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>403.1777176086892</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>292.8135586421404</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.07500185391657</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>100.5836881106795</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.5788950023109</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3728241304924</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>220.4095851619633</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.3909360229847</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26034,10 +26034,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>3.120263292227687</v>
+        <v>116.4144165079274</v>
       </c>
       <c r="H46" t="n">
         <v>142.2755775284206</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>543533.3966537433</v>
+        <v>543533.3966537432</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>543533.3966537433</v>
+        <v>543533.3966537431</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>543533.3966537432</v>
+        <v>543533.3966537431</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>526231.2314330055</v>
+        <v>526231.2314330058</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>526231.2314330057</v>
+        <v>526231.2314330058</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>544868.7600588112</v>
+        <v>544868.7600588109</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>544868.7600588109</v>
+        <v>544868.7600588111</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>544868.7600588111</v>
+        <v>544868.7600588109</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>544868.7600588109</v>
+        <v>544868.7600588111</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544868.7600588109</v>
+        <v>544868.7600588111</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>209284.9156047157</v>
+        <v>209284.9156047158</v>
       </c>
       <c r="C2" t="n">
         <v>209284.9156047157</v>
@@ -26322,28 +26322,28 @@
         <v>209284.9156047157</v>
       </c>
       <c r="E2" t="n">
-        <v>221901.8635131747</v>
+        <v>221901.8635131746</v>
       </c>
       <c r="F2" t="n">
-        <v>221901.8635131747</v>
+        <v>221901.8635131746</v>
       </c>
       <c r="G2" t="n">
         <v>221901.8635131746</v>
       </c>
       <c r="H2" t="n">
-        <v>221901.8635131747</v>
+        <v>221901.8635131746</v>
       </c>
       <c r="I2" t="n">
         <v>229072.307867251</v>
       </c>
       <c r="J2" t="n">
+        <v>229072.307867251</v>
+      </c>
+      <c r="K2" t="n">
+        <v>229072.307867251</v>
+      </c>
+      <c r="L2" t="n">
         <v>229072.3078672509</v>
-      </c>
-      <c r="K2" t="n">
-        <v>229072.3078672509</v>
-      </c>
-      <c r="L2" t="n">
-        <v>229072.307867251</v>
       </c>
       <c r="M2" t="n">
         <v>229072.307867251</v>
@@ -26355,7 +26355,7 @@
         <v>229072.3078672509</v>
       </c>
       <c r="P2" t="n">
-        <v>229072.3078672509</v>
+        <v>229072.307867251</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>87345.66753953439</v>
       </c>
       <c r="C4" t="n">
-        <v>87345.66753953438</v>
+        <v>87345.66753953439</v>
       </c>
       <c r="D4" t="n">
         <v>87345.66753953439</v>
@@ -26429,7 +26429,7 @@
         <v>42531.39303632666</v>
       </c>
       <c r="F4" t="n">
-        <v>42531.39303632667</v>
+        <v>42531.39303632666</v>
       </c>
       <c r="G4" t="n">
         <v>42531.39303632666</v>
@@ -26444,7 +26444,7 @@
         <v>45544.26861710838</v>
       </c>
       <c r="K4" t="n">
-        <v>45544.26861710839</v>
+        <v>45544.26861710838</v>
       </c>
       <c r="L4" t="n">
         <v>45544.26861710838</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-118385.3269064303</v>
+        <v>-119062.8557658243</v>
       </c>
       <c r="C6" t="n">
-        <v>56570.18298668377</v>
+        <v>55892.65412728972</v>
       </c>
       <c r="D6" t="n">
-        <v>56570.18298668377</v>
+        <v>55892.65412728972</v>
       </c>
       <c r="E6" t="n">
-        <v>-152738.128007515</v>
+        <v>-153358.3071036888</v>
       </c>
       <c r="F6" t="n">
-        <v>139693.983945147</v>
+        <v>139073.8048489731</v>
       </c>
       <c r="G6" t="n">
-        <v>139693.9839451469</v>
+        <v>139073.8048489732</v>
       </c>
       <c r="H6" t="n">
-        <v>139693.983945147</v>
+        <v>139073.8048489731</v>
       </c>
       <c r="I6" t="n">
-        <v>133257.078389909</v>
+        <v>132669.4922226173</v>
       </c>
       <c r="J6" t="n">
-        <v>5285.210324540923</v>
+        <v>4697.624157249371</v>
       </c>
       <c r="K6" t="n">
-        <v>141880.0111304358</v>
+        <v>141292.4249631444</v>
       </c>
       <c r="L6" t="n">
-        <v>141880.0111304359</v>
+        <v>141292.4249631443</v>
       </c>
       <c r="M6" t="n">
-        <v>141880.011130436</v>
+        <v>141292.4249631444</v>
       </c>
       <c r="N6" t="n">
-        <v>141880.011130436</v>
+        <v>141292.4249631444</v>
       </c>
       <c r="O6" t="n">
-        <v>141880.0111304359</v>
+        <v>141292.4249631443</v>
       </c>
       <c r="P6" t="n">
-        <v>141880.0111304359</v>
+        <v>141292.4249631444</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>179.3869557635733</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34944,13 +34944,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>338.0047407346341</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M8" t="n">
-        <v>135.5987266329976</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>153.3570587061402</v>
       </c>
       <c r="P11" t="n">
-        <v>481.5621236638653</v>
+        <v>353.2836720718035</v>
       </c>
       <c r="Q11" t="n">
         <v>482.4232304277853</v>
       </c>
       <c r="R11" t="n">
-        <v>4.605849229865086</v>
+        <v>132.8843008219268</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J12" t="n">
         <v>268.7297789247654</v>
@@ -35494,13 +35494,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>113.8799530113935</v>
       </c>
       <c r="M12" t="n">
         <v>140.8112525916694</v>
       </c>
       <c r="N12" t="n">
-        <v>220.4238732654003</v>
+        <v>212.1217331959115</v>
       </c>
       <c r="O12" t="n">
         <v>128.5264804823996</v>
@@ -35509,7 +35509,7 @@
         <v>95.24485003682449</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.24717047475013</v>
+        <v>453.3180361351276</v>
       </c>
       <c r="R12" t="n">
         <v>78.46817639690924</v>
@@ -35573,10 +35573,10 @@
         <v>232.3727300340243</v>
       </c>
       <c r="L13" t="n">
-        <v>352.8641084775468</v>
+        <v>360.1079310093393</v>
       </c>
       <c r="M13" t="n">
-        <v>395.076256187214</v>
+        <v>266.6797412852</v>
       </c>
       <c r="N13" t="n">
         <v>384.1193760346968</v>
@@ -35588,7 +35588,7 @@
         <v>287.1389869542312</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>121.1526923702216</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>376.6969226478365</v>
+        <v>366.4043993023662</v>
       </c>
       <c r="K14" t="n">
         <v>522.0635703700256</v>
@@ -35655,13 +35655,13 @@
         <v>135.4317377034006</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>163.6495820516106</v>
       </c>
       <c r="N14" t="n">
         <v>168.1850704436442</v>
       </c>
       <c r="O14" t="n">
-        <v>153.3570587061402</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
         <v>116.7726557588053</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J15" t="n">
-        <v>22.60007794028737</v>
+        <v>268.7297789247654</v>
       </c>
       <c r="K15" t="n">
-        <v>70.5995611839636</v>
+        <v>156.9340301345729</v>
       </c>
       <c r="L15" t="n">
+        <v>113.8799530113935</v>
+      </c>
+      <c r="M15" t="n">
+        <v>140.8112525916694</v>
+      </c>
+      <c r="N15" t="n">
+        <v>150.4325530981631</v>
+      </c>
+      <c r="O15" t="n">
+        <v>128.5264804823996</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M15" t="n">
-        <v>221.6963521668675</v>
-      </c>
-      <c r="N15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P15" t="n">
-        <v>95.24485003682449</v>
-      </c>
       <c r="Q15" t="n">
-        <v>43.24717047475013</v>
+        <v>453.3180361351276</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>78.46817639690924</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>60.63076958652302</v>
       </c>
       <c r="K16" t="n">
         <v>232.3727300340243</v>
@@ -35813,7 +35813,7 @@
         <v>360.1079310093393</v>
       </c>
       <c r="M16" t="n">
-        <v>395.076256187214</v>
+        <v>266.6797412852</v>
       </c>
       <c r="N16" t="n">
         <v>384.1193760346968</v>
@@ -35825,7 +35825,7 @@
         <v>287.1389869542312</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.38694705473052</v>
+        <v>121.1526923702216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>380.9473728004222</v>
+        <v>309.312239291288</v>
       </c>
       <c r="K17" t="n">
         <v>96.9987788626607</v>
@@ -35895,16 +35895,16 @@
         <v>163.6495820516106</v>
       </c>
       <c r="N17" t="n">
-        <v>168.1850704436442</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>153.3570587061402</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>353.2836720718035</v>
+        <v>116.7726557588053</v>
       </c>
       <c r="Q17" t="n">
-        <v>482.4232304277853</v>
+        <v>67.98436865965144</v>
       </c>
       <c r="R17" t="n">
         <v>132.8843008219268</v>
@@ -35965,10 +35965,10 @@
         <v>268.7297789247654</v>
       </c>
       <c r="K18" t="n">
-        <v>165.2361702040618</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>181.9840248768854</v>
       </c>
       <c r="M18" t="n">
         <v>140.8112525916694</v>
@@ -35980,10 +35980,10 @@
         <v>128.5264804823996</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>95.24485003682449</v>
       </c>
       <c r="Q18" t="n">
-        <v>43.24717047475013</v>
+        <v>453.3180361351276</v>
       </c>
       <c r="R18" t="n">
         <v>78.46817639690924</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>60.63076958652302</v>
       </c>
       <c r="K19" t="n">
         <v>232.3727300340243</v>
       </c>
       <c r="L19" t="n">
-        <v>360.1079310093393</v>
+        <v>231.7114161073253</v>
       </c>
       <c r="M19" t="n">
         <v>395.076256187214</v>
@@ -36062,7 +36062,7 @@
         <v>287.1389869542312</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.38694705473052</v>
+        <v>121.1526923702216</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>50.8707799845342</v>
+        <v>380.9473728004222</v>
       </c>
       <c r="K20" t="n">
         <v>96.9987788626607</v>
@@ -36135,16 +36135,16 @@
         <v>168.1850704436442</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700256</v>
+        <v>153.3570587061402</v>
       </c>
       <c r="P20" t="n">
-        <v>442.9322048158679</v>
+        <v>353.2836720718035</v>
       </c>
       <c r="Q20" t="n">
         <v>482.4232304277853</v>
       </c>
       <c r="R20" t="n">
-        <v>4.605849229865086</v>
+        <v>132.8843008219268</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J21" t="n">
         <v>268.7297789247654</v>
       </c>
       <c r="K21" t="n">
-        <v>70.5995611839636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L21" t="n">
         <v>113.8799530113935</v>
@@ -36211,13 +36211,13 @@
         <v>140.8112525916694</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>150.4325530981631</v>
       </c>
       <c r="O21" t="n">
         <v>128.5264804823996</v>
       </c>
       <c r="P21" t="n">
-        <v>243.1819138165159</v>
+        <v>156.9340301345729</v>
       </c>
       <c r="Q21" t="n">
         <v>453.3180361351276</v>
@@ -36281,7 +36281,7 @@
         <v>60.63076958652302</v>
       </c>
       <c r="K22" t="n">
-        <v>225.1289075022318</v>
+        <v>232.3727300340243</v>
       </c>
       <c r="L22" t="n">
         <v>360.1079310093393</v>
@@ -36293,13 +36293,13 @@
         <v>384.1193760346968</v>
       </c>
       <c r="O22" t="n">
-        <v>354.9585766151581</v>
+        <v>226.5620617131438</v>
       </c>
       <c r="P22" t="n">
         <v>287.1389869542312</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>121.1526923702216</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>50.8707799845342</v>
       </c>
       <c r="K23" t="n">
-        <v>96.9987788626607</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="L23" t="n">
-        <v>194.8541626197483</v>
+        <v>135.4317377034006</v>
       </c>
       <c r="M23" t="n">
-        <v>554.4902412253812</v>
+        <v>163.6495820516106</v>
       </c>
       <c r="N23" t="n">
-        <v>554.4902412253812</v>
+        <v>168.1850704436442</v>
       </c>
       <c r="O23" t="n">
         <v>554.4902412253812</v>
       </c>
       <c r="P23" t="n">
-        <v>116.7726557588053</v>
+        <v>367.5709966758781</v>
       </c>
       <c r="Q23" t="n">
         <v>67.98436865965144</v>
       </c>
       <c r="R23" t="n">
-        <v>4.605849229865086</v>
+        <v>132.8843008219268</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J24" t="n">
-        <v>22.60007794028737</v>
+        <v>268.7297789247654</v>
       </c>
       <c r="K24" t="n">
-        <v>554.4902412253812</v>
+        <v>170.0737618340623</v>
       </c>
       <c r="L24" t="n">
         <v>113.8799530113935</v>
       </c>
       <c r="M24" t="n">
-        <v>140.8112525916694</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="N24" t="n">
-        <v>510.7078314896869</v>
+        <v>150.4325530981631</v>
       </c>
       <c r="O24" t="n">
         <v>128.5264804823996</v>
@@ -36460,7 +36460,7 @@
         <v>453.3180361351276</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>78.46817639690924</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>92.36788389814231</v>
+        <v>380.9473728004222</v>
       </c>
       <c r="K26" t="n">
-        <v>96.9987788626607</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="L26" t="n">
+        <v>135.4317377034006</v>
+      </c>
+      <c r="M26" t="n">
+        <v>163.6495820516106</v>
+      </c>
+      <c r="N26" t="n">
+        <v>168.1850704436442</v>
+      </c>
+      <c r="O26" t="n">
+        <v>165.7728554520519</v>
+      </c>
+      <c r="P26" t="n">
         <v>554.4902412253812</v>
-      </c>
-      <c r="M26" t="n">
-        <v>554.4902412253812</v>
-      </c>
-      <c r="N26" t="n">
-        <v>554.4902412253812</v>
-      </c>
-      <c r="O26" t="n">
-        <v>153.3570587061402</v>
-      </c>
-      <c r="P26" t="n">
-        <v>116.7726557588053</v>
       </c>
       <c r="Q26" t="n">
         <v>67.98436865965144</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J27" t="n">
-        <v>22.60007794028737</v>
+        <v>268.7297789247654</v>
       </c>
       <c r="K27" t="n">
         <v>70.5995611839636</v>
       </c>
       <c r="L27" t="n">
-        <v>528.474027728019</v>
+        <v>113.8799530113935</v>
       </c>
       <c r="M27" t="n">
         <v>554.4902412253812</v>
@@ -36688,16 +36688,16 @@
         <v>150.4325530981631</v>
       </c>
       <c r="O27" t="n">
-        <v>554.4902412253812</v>
+        <v>128.5264804823996</v>
       </c>
       <c r="P27" t="n">
-        <v>95.24485003682449</v>
+        <v>194.7190506869233</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.24717047475013</v>
+        <v>453.3180361351276</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>78.46817639690924</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.63076958652302</v>
+        <v>60.63076958652311</v>
       </c>
       <c r="K28" t="n">
         <v>232.3727300340243</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>380.9473728004222</v>
+        <v>265.0847179542723</v>
       </c>
       <c r="K29" t="n">
-        <v>461.9063100776732</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="L29" t="n">
         <v>135.4317377034006</v>
@@ -36849,10 +36849,10 @@
         <v>153.3570587061402</v>
       </c>
       <c r="P29" t="n">
-        <v>116.7726557588053</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="Q29" t="n">
-        <v>482.4232304277853</v>
+        <v>67.98436865965144</v>
       </c>
       <c r="R29" t="n">
         <v>132.8843008219268</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J30" t="n">
-        <v>22.60007794028737</v>
+        <v>268.7297789247654</v>
       </c>
       <c r="K30" t="n">
-        <v>424.9807058747381</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="L30" t="n">
-        <v>554.4902412253812</v>
+        <v>113.8799530113935</v>
       </c>
       <c r="M30" t="n">
         <v>140.8112525916694</v>
@@ -36928,13 +36928,13 @@
         <v>128.5264804823996</v>
       </c>
       <c r="P30" t="n">
-        <v>554.4902412253812</v>
+        <v>124.5073592792174</v>
       </c>
       <c r="Q30" t="n">
-        <v>43.24717047475013</v>
+        <v>453.3180361351276</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>78.46817639690924</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.63076958652311</v>
+        <v>60.63076958652302</v>
       </c>
       <c r="K31" t="n">
         <v>232.3727300340243</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>50.8707799845342</v>
+        <v>380.9473728004222</v>
       </c>
       <c r="K32" t="n">
-        <v>96.9987788626607</v>
+        <v>461.9063100776732</v>
       </c>
       <c r="L32" t="n">
         <v>135.4317377034006</v>
       </c>
       <c r="M32" t="n">
-        <v>554.4902412253812</v>
+        <v>163.6495820516106</v>
       </c>
       <c r="N32" t="n">
-        <v>554.4902412253812</v>
+        <v>168.1850704436442</v>
       </c>
       <c r="O32" t="n">
         <v>153.3570587061402</v>
       </c>
       <c r="P32" t="n">
-        <v>554.4902412253812</v>
+        <v>116.7726557588053</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.98436865965144</v>
+        <v>482.4232304277853</v>
       </c>
       <c r="R32" t="n">
-        <v>27.44387119887782</v>
+        <v>132.8843008219268</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J33" t="n">
         <v>268.7297789247654</v>
@@ -37156,22 +37156,22 @@
         <v>113.8799530113935</v>
       </c>
       <c r="M33" t="n">
+        <v>140.8112525916694</v>
+      </c>
+      <c r="N33" t="n">
+        <v>150.4325530981631</v>
+      </c>
+      <c r="O33" t="n">
         <v>554.4902412253812</v>
       </c>
-      <c r="N33" t="n">
-        <v>334.7898219129148</v>
-      </c>
-      <c r="O33" t="n">
-        <v>128.5264804823996</v>
-      </c>
       <c r="P33" t="n">
-        <v>95.24485003682449</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="Q33" t="n">
-        <v>453.3180361351276</v>
+        <v>81.26207348739999</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.46817639690924</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>360.1079310093393</v>
       </c>
       <c r="M34" t="n">
-        <v>395.076256187214</v>
+        <v>395.0762561872141</v>
       </c>
       <c r="N34" t="n">
         <v>384.1193760346968</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>380.9473728004222</v>
+        <v>50.8707799845342</v>
       </c>
       <c r="K35" t="n">
-        <v>96.9987788626607</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="L35" t="n">
         <v>135.4317377034006</v>
       </c>
       <c r="M35" t="n">
-        <v>554.4902412253812</v>
+        <v>163.6495820516106</v>
       </c>
       <c r="N35" t="n">
-        <v>554.4902412253812</v>
+        <v>168.1850704436442</v>
       </c>
       <c r="O35" t="n">
         <v>153.3570587061402</v>
       </c>
       <c r="P35" t="n">
-        <v>116.7726557588053</v>
+        <v>354.2653174269851</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.18493168729029</v>
+        <v>482.4232304277853</v>
       </c>
       <c r="R35" t="n">
         <v>132.8843008219268</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J36" t="n">
-        <v>22.60007794028737</v>
+        <v>268.7297789247654</v>
       </c>
       <c r="K36" t="n">
-        <v>81.13594777337106</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="L36" t="n">
         <v>113.8799530113935</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4902412253812</v>
+        <v>140.8112525916694</v>
       </c>
       <c r="N36" t="n">
-        <v>554.4902412253812</v>
+        <v>150.4325530981631</v>
       </c>
       <c r="O36" t="n">
-        <v>554.4902412253812</v>
+        <v>128.5264804823996</v>
       </c>
       <c r="P36" t="n">
-        <v>95.24485003682449</v>
+        <v>124.5073592792174</v>
       </c>
       <c r="Q36" t="n">
-        <v>43.24717047475013</v>
+        <v>453.3180361351276</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>78.46817639690924</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.63076958652311</v>
+        <v>60.63076958652302</v>
       </c>
       <c r="K37" t="n">
         <v>232.3727300340243</v>
@@ -37548,7 +37548,7 @@
         <v>96.9987788626607</v>
       </c>
       <c r="L38" t="n">
-        <v>135.4317377034006</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="M38" t="n">
         <v>554.4902412253812</v>
@@ -37563,10 +37563,10 @@
         <v>116.7726557588053</v>
       </c>
       <c r="Q38" t="n">
-        <v>482.4232304277853</v>
+        <v>67.98436865965144</v>
       </c>
       <c r="R38" t="n">
-        <v>50.72259489731982</v>
+        <v>46.10295314347296</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J39" t="n">
-        <v>22.60007794028737</v>
+        <v>268.7297789247654</v>
       </c>
       <c r="K39" t="n">
         <v>554.4902412253812</v>
@@ -37630,22 +37630,22 @@
         <v>113.8799530113935</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4902412253812</v>
+        <v>140.8112525916694</v>
       </c>
       <c r="N39" t="n">
-        <v>507.0997085163526</v>
+        <v>150.4325530981631</v>
       </c>
       <c r="O39" t="n">
         <v>128.5264804823996</v>
       </c>
       <c r="P39" t="n">
-        <v>95.24485003682449</v>
+        <v>124.5073592792174</v>
       </c>
       <c r="Q39" t="n">
-        <v>43.24717047475013</v>
+        <v>453.3180361351276</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.46817639690924</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>380.9473728004222</v>
       </c>
       <c r="K41" t="n">
-        <v>96.9987788626607</v>
+        <v>152.4671762031591</v>
       </c>
       <c r="L41" t="n">
         <v>135.4317377034006</v>
       </c>
       <c r="M41" t="n">
-        <v>528.5571132666231</v>
+        <v>163.6495820516106</v>
       </c>
       <c r="N41" t="n">
         <v>168.1850704436442</v>
@@ -37797,13 +37797,13 @@
         <v>153.3570587061402</v>
       </c>
       <c r="P41" t="n">
-        <v>116.7726557588053</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="Q41" t="n">
         <v>482.4232304277853</v>
       </c>
       <c r="R41" t="n">
-        <v>132.8843008219268</v>
+        <v>4.605849229865086</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J42" t="n">
-        <v>22.60007794028737</v>
+        <v>268.7297789247654</v>
       </c>
       <c r="K42" t="n">
-        <v>395.687055006008</v>
+        <v>554.4902412253812</v>
       </c>
       <c r="L42" t="n">
-        <v>554.4902412253812</v>
+        <v>113.8799530113935</v>
       </c>
       <c r="M42" t="n">
         <v>140.8112525916694</v>
@@ -37876,13 +37876,13 @@
         <v>128.5264804823996</v>
       </c>
       <c r="P42" t="n">
-        <v>95.24485003682449</v>
+        <v>202.9755356761267</v>
       </c>
       <c r="Q42" t="n">
         <v>453.3180361351276</v>
       </c>
       <c r="R42" t="n">
-        <v>78.46817639690924</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>60.63076958652302</v>
       </c>
       <c r="K43" t="n">
-        <v>232.3727300340243</v>
+        <v>232.3727300340244</v>
       </c>
       <c r="L43" t="n">
         <v>360.1079310093393</v>
@@ -38028,19 +38028,19 @@
         <v>163.6495820516106</v>
       </c>
       <c r="N44" t="n">
-        <v>554.4902412253812</v>
+        <v>168.1850704436442</v>
       </c>
       <c r="O44" t="n">
         <v>153.3570587061402</v>
       </c>
       <c r="P44" t="n">
-        <v>116.7726557588053</v>
+        <v>481.6801869738177</v>
       </c>
       <c r="Q44" t="n">
         <v>482.4232304277853</v>
       </c>
       <c r="R44" t="n">
-        <v>111.486661255202</v>
+        <v>132.8843008219268</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.414891767743541</v>
       </c>
       <c r="J45" t="n">
         <v>268.7297789247654</v>
@@ -38101,7 +38101,7 @@
         <v>554.4902412253812</v>
       </c>
       <c r="L45" t="n">
-        <v>113.8799530113935</v>
+        <v>143.1424622537863</v>
       </c>
       <c r="M45" t="n">
         <v>140.8112525916694</v>
@@ -38113,13 +38113,13 @@
         <v>128.5264804823996</v>
       </c>
       <c r="P45" t="n">
-        <v>209.3904274438703</v>
+        <v>95.24485003682449</v>
       </c>
       <c r="Q45" t="n">
         <v>453.3180361351276</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>78.46817639690924</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.63076958652311</v>
+        <v>60.63076958652302</v>
       </c>
       <c r="K46" t="n">
         <v>232.3727300340243</v>
